--- a/AUGHMI_0322/AUGHMI_0322_Ütemezések.xlsx
+++ b/AUGHMI_0322/AUGHMI_0322_Ütemezések.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dokumentumok\ME doc\2-félév\Operációs rendszerek\Gyakorlati feladatok\Gyak7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8660F2-B9C1-47C8-84FC-F84294065EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFC0762-408B-4CD1-8FF5-DD7995B56BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4737378E-3245-4E5B-B1F7-E42F283A2703}"/>
   </bookViews>
@@ -300,10 +300,10 @@
     <t>27/8</t>
   </si>
   <si>
-    <t>1,25; 1,25; 0,5</t>
-  </si>
-  <si>
-    <t>1,25; 0,625</t>
+    <t>4, 8, 4</t>
+  </si>
+  <si>
+    <t>8, 5</t>
   </si>
 </sst>
 </file>
@@ -681,7 +681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -731,9 +731,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -752,41 +749,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1102,205 +1157,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CBBCF3-96C6-40B1-8BC7-4EA58439D21D}">
-  <dimension ref="B1:BR47"/>
+  <dimension ref="A1:BR52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="21" width="2.6640625" style="19" customWidth="1"/>
-    <col min="22" max="22" width="3" style="19" bestFit="1" customWidth="1"/>
-    <col min="23" max="31" width="2.6640625" style="19" customWidth="1"/>
-    <col min="32" max="32" width="3" style="19" bestFit="1" customWidth="1"/>
-    <col min="33" max="41" width="2.6640625" style="19" customWidth="1"/>
-    <col min="42" max="42" width="3" style="19" bestFit="1" customWidth="1"/>
-    <col min="43" max="51" width="2.6640625" style="19" customWidth="1"/>
-    <col min="52" max="52" width="3" style="19" bestFit="1" customWidth="1"/>
-    <col min="53" max="61" width="2.6640625" style="19" customWidth="1"/>
-    <col min="62" max="62" width="3" style="19" bestFit="1" customWidth="1"/>
-    <col min="63" max="70" width="2.6640625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="21" width="2.6640625" style="18" customWidth="1"/>
+    <col min="22" max="22" width="3" style="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="31" width="2.6640625" style="18" customWidth="1"/>
+    <col min="32" max="32" width="3" style="18" bestFit="1" customWidth="1"/>
+    <col min="33" max="41" width="2.6640625" style="18" customWidth="1"/>
+    <col min="42" max="42" width="3" style="18" bestFit="1" customWidth="1"/>
+    <col min="43" max="51" width="2.6640625" style="18" customWidth="1"/>
+    <col min="52" max="52" width="3" style="18" bestFit="1" customWidth="1"/>
+    <col min="53" max="61" width="2.6640625" style="18" customWidth="1"/>
+    <col min="62" max="62" width="3" style="18" bestFit="1" customWidth="1"/>
+    <col min="63" max="70" width="2.6640625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:70" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L1" s="19">
+      <c r="L1" s="18">
         <v>0</v>
       </c>
-      <c r="M1" s="19">
+      <c r="M1" s="18">
         <v>1</v>
       </c>
-      <c r="N1" s="19">
-        <v>2</v>
-      </c>
-      <c r="O1" s="19">
-        <v>3</v>
-      </c>
-      <c r="P1" s="19">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="19">
+      <c r="N1" s="18">
+        <v>2</v>
+      </c>
+      <c r="O1" s="18">
+        <v>3</v>
+      </c>
+      <c r="P1" s="18">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="18">
         <v>5</v>
       </c>
-      <c r="R1" s="19">
-        <v>6</v>
-      </c>
-      <c r="S1" s="19">
-        <v>7</v>
-      </c>
-      <c r="T1" s="19">
-        <v>8</v>
-      </c>
-      <c r="U1" s="19">
-        <v>9</v>
-      </c>
-      <c r="V1" s="19">
+      <c r="R1" s="18">
+        <v>6</v>
+      </c>
+      <c r="S1" s="18">
+        <v>7</v>
+      </c>
+      <c r="T1" s="18">
+        <v>8</v>
+      </c>
+      <c r="U1" s="18">
+        <v>9</v>
+      </c>
+      <c r="V1" s="18">
         <v>10</v>
       </c>
-      <c r="W1" s="19">
+      <c r="W1" s="18">
         <v>1</v>
       </c>
-      <c r="X1" s="19">
-        <v>2</v>
-      </c>
-      <c r="Y1" s="19">
-        <v>3</v>
-      </c>
-      <c r="Z1" s="19">
-        <v>4</v>
-      </c>
-      <c r="AA1" s="19">
+      <c r="X1" s="18">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="18">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="18">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="18">
         <v>5</v>
       </c>
-      <c r="AB1" s="19">
-        <v>6</v>
-      </c>
-      <c r="AC1" s="19">
-        <v>7</v>
-      </c>
-      <c r="AD1" s="19">
-        <v>8</v>
-      </c>
-      <c r="AE1" s="19">
-        <v>9</v>
-      </c>
-      <c r="AF1" s="19">
+      <c r="AB1" s="18">
+        <v>6</v>
+      </c>
+      <c r="AC1" s="18">
+        <v>7</v>
+      </c>
+      <c r="AD1" s="18">
+        <v>8</v>
+      </c>
+      <c r="AE1" s="18">
+        <v>9</v>
+      </c>
+      <c r="AF1" s="18">
         <v>20</v>
       </c>
-      <c r="AG1" s="19">
+      <c r="AG1" s="18">
         <v>1</v>
       </c>
-      <c r="AH1" s="19">
-        <v>2</v>
-      </c>
-      <c r="AI1" s="19">
-        <v>3</v>
-      </c>
-      <c r="AJ1" s="19">
-        <v>4</v>
-      </c>
-      <c r="AK1" s="19">
+      <c r="AH1" s="18">
+        <v>2</v>
+      </c>
+      <c r="AI1" s="18">
+        <v>3</v>
+      </c>
+      <c r="AJ1" s="18">
+        <v>4</v>
+      </c>
+      <c r="AK1" s="18">
         <v>5</v>
       </c>
-      <c r="AL1" s="19">
-        <v>6</v>
-      </c>
-      <c r="AM1" s="19">
-        <v>7</v>
-      </c>
-      <c r="AN1" s="19">
-        <v>8</v>
-      </c>
-      <c r="AO1" s="19">
-        <v>9</v>
-      </c>
-      <c r="AP1" s="19">
+      <c r="AL1" s="18">
+        <v>6</v>
+      </c>
+      <c r="AM1" s="18">
+        <v>7</v>
+      </c>
+      <c r="AN1" s="18">
+        <v>8</v>
+      </c>
+      <c r="AO1" s="18">
+        <v>9</v>
+      </c>
+      <c r="AP1" s="18">
         <v>30</v>
       </c>
-      <c r="AQ1" s="19">
+      <c r="AQ1" s="18">
         <v>1</v>
       </c>
-      <c r="AR1" s="19">
-        <v>2</v>
-      </c>
-      <c r="AS1" s="19">
-        <v>3</v>
-      </c>
-      <c r="AT1" s="19">
-        <v>4</v>
-      </c>
-      <c r="AU1" s="19">
+      <c r="AR1" s="18">
+        <v>2</v>
+      </c>
+      <c r="AS1" s="18">
+        <v>3</v>
+      </c>
+      <c r="AT1" s="18">
+        <v>4</v>
+      </c>
+      <c r="AU1" s="18">
         <v>5</v>
       </c>
-      <c r="AV1" s="19">
-        <v>6</v>
-      </c>
-      <c r="AW1" s="19">
-        <v>7</v>
-      </c>
-      <c r="AX1" s="19">
-        <v>8</v>
-      </c>
-      <c r="AY1" s="19">
-        <v>9</v>
-      </c>
-      <c r="AZ1" s="19">
+      <c r="AV1" s="18">
+        <v>6</v>
+      </c>
+      <c r="AW1" s="18">
+        <v>7</v>
+      </c>
+      <c r="AX1" s="18">
+        <v>8</v>
+      </c>
+      <c r="AY1" s="18">
+        <v>9</v>
+      </c>
+      <c r="AZ1" s="18">
         <v>40</v>
       </c>
-      <c r="BA1" s="19">
+      <c r="BA1" s="18">
         <v>1</v>
       </c>
-      <c r="BB1" s="19">
-        <v>2</v>
-      </c>
-      <c r="BC1" s="19">
-        <v>3</v>
-      </c>
-      <c r="BD1" s="19">
-        <v>4</v>
-      </c>
-      <c r="BE1" s="19">
+      <c r="BB1" s="18">
+        <v>2</v>
+      </c>
+      <c r="BC1" s="18">
+        <v>3</v>
+      </c>
+      <c r="BD1" s="18">
+        <v>4</v>
+      </c>
+      <c r="BE1" s="18">
         <v>5</v>
       </c>
-      <c r="BF1" s="19">
-        <v>6</v>
-      </c>
-      <c r="BG1" s="19">
-        <v>7</v>
-      </c>
-      <c r="BH1" s="19">
-        <v>8</v>
-      </c>
-      <c r="BI1" s="19">
-        <v>9</v>
-      </c>
-      <c r="BJ1" s="19">
+      <c r="BF1" s="18">
+        <v>6</v>
+      </c>
+      <c r="BG1" s="18">
+        <v>7</v>
+      </c>
+      <c r="BH1" s="18">
+        <v>8</v>
+      </c>
+      <c r="BI1" s="18">
+        <v>9</v>
+      </c>
+      <c r="BJ1" s="18">
         <v>50</v>
       </c>
-      <c r="BK1" s="19">
+      <c r="BK1" s="18">
         <v>1</v>
       </c>
-      <c r="BL1" s="19">
-        <v>2</v>
-      </c>
-      <c r="BM1" s="19">
-        <v>3</v>
-      </c>
-      <c r="BN1" s="19">
-        <v>4</v>
-      </c>
-      <c r="BO1" s="19">
+      <c r="BL1" s="18">
+        <v>2</v>
+      </c>
+      <c r="BM1" s="18">
+        <v>3</v>
+      </c>
+      <c r="BN1" s="18">
+        <v>4</v>
+      </c>
+      <c r="BO1" s="18">
         <v>5</v>
       </c>
-      <c r="BP1" s="19">
-        <v>6</v>
-      </c>
-      <c r="BQ1" s="19">
-        <v>7</v>
-      </c>
-      <c r="BR1" s="19">
+      <c r="BP1" s="18">
+        <v>6</v>
+      </c>
+      <c r="BQ1" s="18">
+        <v>7</v>
+      </c>
+      <c r="BR1" s="18">
         <v>8</v>
       </c>
     </row>
@@ -1323,10 +1380,10 @@
       <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="33"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="2:70" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
@@ -1347,24 +1404,24 @@
       <c r="G3" s="8">
         <v>0</v>
       </c>
-      <c r="K3" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
+      <c r="K3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
     </row>
     <row r="4" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
@@ -1385,24 +1442,24 @@
       <c r="G4" s="12">
         <v>7</v>
       </c>
-      <c r="K4" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="33"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
+      <c r="K4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="23"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
     </row>
     <row r="5" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
@@ -1423,46 +1480,46 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="K5" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="33"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="34"/>
-      <c r="AN5" s="34"/>
-      <c r="AO5" s="34"/>
-      <c r="AP5" s="34"/>
-      <c r="AQ5" s="34"/>
-      <c r="AR5" s="34"/>
-      <c r="AS5" s="34"/>
-      <c r="AT5" s="34"/>
-      <c r="AU5" s="34"/>
-      <c r="AV5" s="34"/>
-      <c r="AW5" s="34"/>
-      <c r="AX5" s="34"/>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="34"/>
-      <c r="BA5" s="34"/>
-      <c r="BB5" s="34"/>
-      <c r="BC5" s="34"/>
-      <c r="BD5" s="34"/>
-      <c r="BE5" s="34"/>
-      <c r="BF5" s="34"/>
-      <c r="BG5" s="34"/>
+      <c r="K5" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="23"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="24"/>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="24"/>
+      <c r="AK5" s="24"/>
+      <c r="AL5" s="24"/>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="24"/>
+      <c r="AO5" s="24"/>
+      <c r="AP5" s="24"/>
+      <c r="AQ5" s="24"/>
+      <c r="AR5" s="24"/>
+      <c r="AS5" s="24"/>
+      <c r="AT5" s="24"/>
+      <c r="AU5" s="24"/>
+      <c r="AV5" s="24"/>
+      <c r="AW5" s="24"/>
+      <c r="AX5" s="24"/>
+      <c r="AY5" s="24"/>
+      <c r="AZ5" s="24"/>
+      <c r="BA5" s="24"/>
+      <c r="BB5" s="24"/>
+      <c r="BC5" s="24"/>
+      <c r="BD5" s="24"/>
+      <c r="BE5" s="24"/>
+      <c r="BF5" s="24"/>
+      <c r="BG5" s="24"/>
     </row>
     <row r="6" spans="2:70" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="13" t="s">
@@ -1483,237 +1540,237 @@
       <c r="G6" s="16">
         <v>28</v>
       </c>
-      <c r="K6" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="33"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="35"/>
-      <c r="AH6" s="35"/>
-      <c r="AI6" s="35"/>
-      <c r="AJ6" s="35"/>
-      <c r="AK6" s="35"/>
-      <c r="AL6" s="35"/>
-      <c r="AM6" s="35"/>
-      <c r="AN6" s="35"/>
-      <c r="AO6" s="35"/>
-      <c r="AP6" s="35"/>
-      <c r="AQ6" s="35"/>
-      <c r="AR6" s="35"/>
-      <c r="AS6" s="35"/>
-      <c r="AT6" s="35"/>
-      <c r="AU6" s="35"/>
-      <c r="AV6" s="35"/>
-      <c r="AW6" s="35"/>
-      <c r="AX6" s="35"/>
-      <c r="AY6" s="35"/>
-      <c r="AZ6" s="35"/>
-      <c r="BA6" s="35"/>
-      <c r="BB6" s="35"/>
-      <c r="BC6" s="35"/>
-      <c r="BD6" s="35"/>
-      <c r="BE6" s="35"/>
-      <c r="BF6" s="35"/>
-      <c r="BG6" s="35"/>
-      <c r="BH6" s="34"/>
-      <c r="BI6" s="34"/>
-      <c r="BJ6" s="34"/>
-      <c r="BK6" s="34"/>
-      <c r="BL6" s="34"/>
-      <c r="BM6" s="34"/>
-      <c r="BN6" s="34"/>
-      <c r="BO6" s="34"/>
-      <c r="BP6" s="34"/>
-      <c r="BQ6" s="34"/>
+      <c r="K6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="23"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="25"/>
+      <c r="AR6" s="25"/>
+      <c r="AS6" s="25"/>
+      <c r="AT6" s="25"/>
+      <c r="AU6" s="25"/>
+      <c r="AV6" s="25"/>
+      <c r="AW6" s="25"/>
+      <c r="AX6" s="25"/>
+      <c r="AY6" s="25"/>
+      <c r="AZ6" s="25"/>
+      <c r="BA6" s="25"/>
+      <c r="BB6" s="25"/>
+      <c r="BC6" s="25"/>
+      <c r="BD6" s="25"/>
+      <c r="BE6" s="25"/>
+      <c r="BF6" s="25"/>
+      <c r="BG6" s="25"/>
+      <c r="BH6" s="24"/>
+      <c r="BI6" s="24"/>
+      <c r="BJ6" s="24"/>
+      <c r="BK6" s="24"/>
+      <c r="BL6" s="24"/>
+      <c r="BM6" s="24"/>
+      <c r="BN6" s="24"/>
+      <c r="BO6" s="24"/>
+      <c r="BP6" s="24"/>
+      <c r="BQ6" s="24"/>
     </row>
     <row r="7" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="10" spans="2:70" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L10" s="19">
+      <c r="L10" s="18">
         <v>0</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="18">
         <v>1</v>
       </c>
-      <c r="N10" s="19">
-        <v>2</v>
-      </c>
-      <c r="O10" s="19">
-        <v>3</v>
-      </c>
-      <c r="P10" s="19">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="19">
+      <c r="N10" s="18">
+        <v>2</v>
+      </c>
+      <c r="O10" s="18">
+        <v>3</v>
+      </c>
+      <c r="P10" s="18">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="18">
         <v>5</v>
       </c>
-      <c r="R10" s="19">
-        <v>6</v>
-      </c>
-      <c r="S10" s="19">
-        <v>7</v>
-      </c>
-      <c r="T10" s="19">
-        <v>8</v>
-      </c>
-      <c r="U10" s="19">
-        <v>9</v>
-      </c>
-      <c r="V10" s="19">
+      <c r="R10" s="18">
+        <v>6</v>
+      </c>
+      <c r="S10" s="18">
+        <v>7</v>
+      </c>
+      <c r="T10" s="18">
+        <v>8</v>
+      </c>
+      <c r="U10" s="18">
+        <v>9</v>
+      </c>
+      <c r="V10" s="18">
         <v>10</v>
       </c>
-      <c r="W10" s="19">
+      <c r="W10" s="18">
         <v>1</v>
       </c>
-      <c r="X10" s="19">
-        <v>2</v>
-      </c>
-      <c r="Y10" s="19">
-        <v>3</v>
-      </c>
-      <c r="Z10" s="19">
-        <v>4</v>
-      </c>
-      <c r="AA10" s="19">
+      <c r="X10" s="18">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="18">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="18">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="18">
         <v>5</v>
       </c>
-      <c r="AB10" s="19">
-        <v>6</v>
-      </c>
-      <c r="AC10" s="19">
-        <v>7</v>
-      </c>
-      <c r="AD10" s="19">
-        <v>8</v>
-      </c>
-      <c r="AE10" s="19">
-        <v>9</v>
-      </c>
-      <c r="AF10" s="19">
+      <c r="AB10" s="18">
+        <v>6</v>
+      </c>
+      <c r="AC10" s="18">
+        <v>7</v>
+      </c>
+      <c r="AD10" s="18">
+        <v>8</v>
+      </c>
+      <c r="AE10" s="18">
+        <v>9</v>
+      </c>
+      <c r="AF10" s="18">
         <v>20</v>
       </c>
-      <c r="AG10" s="19">
+      <c r="AG10" s="18">
         <v>1</v>
       </c>
-      <c r="AH10" s="19">
-        <v>2</v>
-      </c>
-      <c r="AI10" s="19">
-        <v>3</v>
-      </c>
-      <c r="AJ10" s="19">
-        <v>4</v>
-      </c>
-      <c r="AK10" s="19">
+      <c r="AH10" s="18">
+        <v>2</v>
+      </c>
+      <c r="AI10" s="18">
+        <v>3</v>
+      </c>
+      <c r="AJ10" s="18">
+        <v>4</v>
+      </c>
+      <c r="AK10" s="18">
         <v>5</v>
       </c>
-      <c r="AL10" s="19">
-        <v>6</v>
-      </c>
-      <c r="AM10" s="19">
-        <v>7</v>
-      </c>
-      <c r="AN10" s="19">
-        <v>8</v>
-      </c>
-      <c r="AO10" s="19">
-        <v>9</v>
-      </c>
-      <c r="AP10" s="19">
+      <c r="AL10" s="18">
+        <v>6</v>
+      </c>
+      <c r="AM10" s="18">
+        <v>7</v>
+      </c>
+      <c r="AN10" s="18">
+        <v>8</v>
+      </c>
+      <c r="AO10" s="18">
+        <v>9</v>
+      </c>
+      <c r="AP10" s="18">
         <v>30</v>
       </c>
-      <c r="AQ10" s="19">
+      <c r="AQ10" s="18">
         <v>1</v>
       </c>
-      <c r="AR10" s="19">
-        <v>2</v>
-      </c>
-      <c r="AS10" s="19">
-        <v>3</v>
-      </c>
-      <c r="AT10" s="19">
-        <v>4</v>
-      </c>
-      <c r="AU10" s="19">
+      <c r="AR10" s="18">
+        <v>2</v>
+      </c>
+      <c r="AS10" s="18">
+        <v>3</v>
+      </c>
+      <c r="AT10" s="18">
+        <v>4</v>
+      </c>
+      <c r="AU10" s="18">
         <v>5</v>
       </c>
-      <c r="AV10" s="19">
-        <v>6</v>
-      </c>
-      <c r="AW10" s="19">
-        <v>7</v>
-      </c>
-      <c r="AX10" s="19">
-        <v>8</v>
-      </c>
-      <c r="AY10" s="19">
-        <v>9</v>
-      </c>
-      <c r="AZ10" s="19">
+      <c r="AV10" s="18">
+        <v>6</v>
+      </c>
+      <c r="AW10" s="18">
+        <v>7</v>
+      </c>
+      <c r="AX10" s="18">
+        <v>8</v>
+      </c>
+      <c r="AY10" s="18">
+        <v>9</v>
+      </c>
+      <c r="AZ10" s="18">
         <v>40</v>
       </c>
-      <c r="BA10" s="19">
+      <c r="BA10" s="18">
         <v>1</v>
       </c>
-      <c r="BB10" s="19">
-        <v>2</v>
-      </c>
-      <c r="BC10" s="19">
-        <v>3</v>
-      </c>
-      <c r="BD10" s="19">
-        <v>4</v>
-      </c>
-      <c r="BE10" s="19">
+      <c r="BB10" s="18">
+        <v>2</v>
+      </c>
+      <c r="BC10" s="18">
+        <v>3</v>
+      </c>
+      <c r="BD10" s="18">
+        <v>4</v>
+      </c>
+      <c r="BE10" s="18">
         <v>5</v>
       </c>
-      <c r="BF10" s="19">
-        <v>6</v>
-      </c>
-      <c r="BG10" s="19">
-        <v>7</v>
-      </c>
-      <c r="BH10" s="19">
-        <v>8</v>
-      </c>
-      <c r="BI10" s="19">
-        <v>9</v>
-      </c>
-      <c r="BJ10" s="19">
+      <c r="BF10" s="18">
+        <v>6</v>
+      </c>
+      <c r="BG10" s="18">
+        <v>7</v>
+      </c>
+      <c r="BH10" s="18">
+        <v>8</v>
+      </c>
+      <c r="BI10" s="18">
+        <v>9</v>
+      </c>
+      <c r="BJ10" s="18">
         <v>50</v>
       </c>
-      <c r="BK10" s="19">
+      <c r="BK10" s="18">
         <v>1</v>
       </c>
-      <c r="BL10" s="19">
-        <v>2</v>
-      </c>
-      <c r="BM10" s="19">
-        <v>3</v>
-      </c>
-      <c r="BN10" s="19">
-        <v>4</v>
-      </c>
-      <c r="BO10" s="19">
+      <c r="BL10" s="18">
+        <v>2</v>
+      </c>
+      <c r="BM10" s="18">
+        <v>3</v>
+      </c>
+      <c r="BN10" s="18">
+        <v>4</v>
+      </c>
+      <c r="BO10" s="18">
         <v>5</v>
       </c>
-      <c r="BP10" s="19">
-        <v>6</v>
-      </c>
-      <c r="BQ10" s="19">
-        <v>7</v>
-      </c>
-      <c r="BR10" s="19">
+      <c r="BP10" s="18">
+        <v>6</v>
+      </c>
+      <c r="BQ10" s="18">
+        <v>7</v>
+      </c>
+      <c r="BR10" s="18">
         <v>8</v>
       </c>
     </row>
@@ -1736,13 +1793,13 @@
       <c r="G11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="33"/>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" spans="2:70" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
@@ -1763,27 +1820,27 @@
       <c r="G12" s="7">
         <v>0</v>
       </c>
-      <c r="H12" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
+      <c r="H12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
     </row>
     <row r="13" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
@@ -1804,27 +1861,27 @@
       <c r="G13" s="11">
         <v>7</v>
       </c>
-      <c r="H13" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="33"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="34"/>
+      <c r="H13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="23"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="24"/>
     </row>
     <row r="14" spans="2:70" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
@@ -1845,59 +1902,59 @@
       <c r="G14" s="11">
         <v>20</v>
       </c>
-      <c r="H14" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="33"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="35"/>
-      <c r="AE14" s="35"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="35"/>
-      <c r="AH14" s="35"/>
-      <c r="AI14" s="35"/>
-      <c r="AJ14" s="35"/>
-      <c r="AK14" s="35"/>
-      <c r="AL14" s="35"/>
-      <c r="AM14" s="35"/>
-      <c r="AN14" s="35"/>
-      <c r="AO14" s="35"/>
-      <c r="AP14" s="35"/>
-      <c r="AQ14" s="35"/>
-      <c r="AR14" s="34"/>
-      <c r="AS14" s="34"/>
-      <c r="AT14" s="34"/>
-      <c r="AU14" s="34"/>
-      <c r="AV14" s="34"/>
-      <c r="AW14" s="34"/>
-      <c r="AX14" s="34"/>
-      <c r="AY14" s="34"/>
-      <c r="AZ14" s="34"/>
-      <c r="BA14" s="34"/>
-      <c r="BB14" s="34"/>
-      <c r="BC14" s="34"/>
-      <c r="BD14" s="34"/>
-      <c r="BE14" s="34"/>
-      <c r="BF14" s="34"/>
-      <c r="BG14" s="34"/>
-      <c r="BH14" s="34"/>
-      <c r="BI14" s="34"/>
-      <c r="BJ14" s="34"/>
-      <c r="BK14" s="34"/>
-      <c r="BL14" s="34"/>
-      <c r="BM14" s="34"/>
-      <c r="BN14" s="34"/>
-      <c r="BO14" s="34"/>
-      <c r="BP14" s="34"/>
-      <c r="BQ14" s="34"/>
+      <c r="H14" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="23"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="25"/>
+      <c r="AJ14" s="25"/>
+      <c r="AK14" s="25"/>
+      <c r="AL14" s="25"/>
+      <c r="AM14" s="25"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="25"/>
+      <c r="AR14" s="24"/>
+      <c r="AS14" s="24"/>
+      <c r="AT14" s="24"/>
+      <c r="AU14" s="24"/>
+      <c r="AV14" s="24"/>
+      <c r="AW14" s="24"/>
+      <c r="AX14" s="24"/>
+      <c r="AY14" s="24"/>
+      <c r="AZ14" s="24"/>
+      <c r="BA14" s="24"/>
+      <c r="BB14" s="24"/>
+      <c r="BC14" s="24"/>
+      <c r="BD14" s="24"/>
+      <c r="BE14" s="24"/>
+      <c r="BF14" s="24"/>
+      <c r="BG14" s="24"/>
+      <c r="BH14" s="24"/>
+      <c r="BI14" s="24"/>
+      <c r="BJ14" s="24"/>
+      <c r="BK14" s="24"/>
+      <c r="BL14" s="24"/>
+      <c r="BM14" s="24"/>
+      <c r="BN14" s="24"/>
+      <c r="BO14" s="24"/>
+      <c r="BP14" s="24"/>
+      <c r="BQ14" s="24"/>
     </row>
     <row r="15" spans="2:70" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="13" t="s">
@@ -1918,216 +1975,216 @@
       <c r="G15" s="15">
         <v>2</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="K15" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15" s="33"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="35"/>
-      <c r="AH15" s="34"/>
-      <c r="AI15" s="34"/>
-      <c r="AJ15" s="34"/>
-      <c r="AK15" s="34"/>
-      <c r="AL15" s="34"/>
-      <c r="AM15" s="34"/>
-      <c r="AN15" s="34"/>
-      <c r="AO15" s="34"/>
-      <c r="AP15" s="34"/>
-      <c r="AQ15" s="34"/>
+      <c r="H15" s="22"/>
+      <c r="K15" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="23"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="24"/>
+      <c r="AI15" s="24"/>
+      <c r="AJ15" s="24"/>
+      <c r="AK15" s="24"/>
+      <c r="AL15" s="24"/>
+      <c r="AM15" s="24"/>
+      <c r="AN15" s="24"/>
+      <c r="AO15" s="24"/>
+      <c r="AP15" s="24"/>
+      <c r="AQ15" s="24"/>
     </row>
     <row r="16" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="19" spans="2:70" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L19" s="19">
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="19" spans="1:70" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L19" s="18">
         <v>0</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="18">
         <v>1</v>
       </c>
-      <c r="N19" s="19">
-        <v>2</v>
-      </c>
-      <c r="O19" s="19">
-        <v>3</v>
-      </c>
-      <c r="P19" s="19">
-        <v>4</v>
-      </c>
-      <c r="Q19" s="19">
+      <c r="N19" s="18">
+        <v>2</v>
+      </c>
+      <c r="O19" s="18">
+        <v>3</v>
+      </c>
+      <c r="P19" s="18">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="18">
         <v>5</v>
       </c>
-      <c r="R19" s="19">
-        <v>6</v>
-      </c>
-      <c r="S19" s="19">
-        <v>7</v>
-      </c>
-      <c r="T19" s="19">
-        <v>8</v>
-      </c>
-      <c r="U19" s="19">
-        <v>9</v>
-      </c>
-      <c r="V19" s="19">
+      <c r="R19" s="18">
+        <v>6</v>
+      </c>
+      <c r="S19" s="18">
+        <v>7</v>
+      </c>
+      <c r="T19" s="18">
+        <v>8</v>
+      </c>
+      <c r="U19" s="18">
+        <v>9</v>
+      </c>
+      <c r="V19" s="18">
         <v>10</v>
       </c>
-      <c r="W19" s="19">
+      <c r="W19" s="18">
         <v>1</v>
       </c>
-      <c r="X19" s="19">
-        <v>2</v>
-      </c>
-      <c r="Y19" s="19">
-        <v>3</v>
-      </c>
-      <c r="Z19" s="19">
-        <v>4</v>
-      </c>
-      <c r="AA19" s="19">
+      <c r="X19" s="18">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="18">
+        <v>3</v>
+      </c>
+      <c r="Z19" s="18">
+        <v>4</v>
+      </c>
+      <c r="AA19" s="18">
         <v>5</v>
       </c>
-      <c r="AB19" s="19">
-        <v>6</v>
-      </c>
-      <c r="AC19" s="19">
-        <v>7</v>
-      </c>
-      <c r="AD19" s="19">
-        <v>8</v>
-      </c>
-      <c r="AE19" s="19">
-        <v>9</v>
-      </c>
-      <c r="AF19" s="19">
+      <c r="AB19" s="18">
+        <v>6</v>
+      </c>
+      <c r="AC19" s="18">
+        <v>7</v>
+      </c>
+      <c r="AD19" s="18">
+        <v>8</v>
+      </c>
+      <c r="AE19" s="18">
+        <v>9</v>
+      </c>
+      <c r="AF19" s="18">
         <v>20</v>
       </c>
-      <c r="AG19" s="19">
+      <c r="AG19" s="18">
         <v>1</v>
       </c>
-      <c r="AH19" s="19">
-        <v>2</v>
-      </c>
-      <c r="AI19" s="19">
-        <v>3</v>
-      </c>
-      <c r="AJ19" s="19">
-        <v>4</v>
-      </c>
-      <c r="AK19" s="19">
+      <c r="AH19" s="18">
+        <v>2</v>
+      </c>
+      <c r="AI19" s="18">
+        <v>3</v>
+      </c>
+      <c r="AJ19" s="18">
+        <v>4</v>
+      </c>
+      <c r="AK19" s="18">
         <v>5</v>
       </c>
-      <c r="AL19" s="19">
-        <v>6</v>
-      </c>
-      <c r="AM19" s="19">
-        <v>7</v>
-      </c>
-      <c r="AN19" s="19">
-        <v>8</v>
-      </c>
-      <c r="AO19" s="19">
-        <v>9</v>
-      </c>
-      <c r="AP19" s="19">
+      <c r="AL19" s="18">
+        <v>6</v>
+      </c>
+      <c r="AM19" s="18">
+        <v>7</v>
+      </c>
+      <c r="AN19" s="18">
+        <v>8</v>
+      </c>
+      <c r="AO19" s="18">
+        <v>9</v>
+      </c>
+      <c r="AP19" s="18">
         <v>30</v>
       </c>
-      <c r="AQ19" s="19">
+      <c r="AQ19" s="18">
         <v>1</v>
       </c>
-      <c r="AR19" s="19">
-        <v>2</v>
-      </c>
-      <c r="AS19" s="19">
-        <v>3</v>
-      </c>
-      <c r="AT19" s="19">
-        <v>4</v>
-      </c>
-      <c r="AU19" s="19">
+      <c r="AR19" s="18">
+        <v>2</v>
+      </c>
+      <c r="AS19" s="18">
+        <v>3</v>
+      </c>
+      <c r="AT19" s="18">
+        <v>4</v>
+      </c>
+      <c r="AU19" s="18">
         <v>5</v>
       </c>
-      <c r="AV19" s="19">
-        <v>6</v>
-      </c>
-      <c r="AW19" s="19">
-        <v>7</v>
-      </c>
-      <c r="AX19" s="19">
-        <v>8</v>
-      </c>
-      <c r="AY19" s="19">
-        <v>9</v>
-      </c>
-      <c r="AZ19" s="19">
+      <c r="AV19" s="18">
+        <v>6</v>
+      </c>
+      <c r="AW19" s="18">
+        <v>7</v>
+      </c>
+      <c r="AX19" s="18">
+        <v>8</v>
+      </c>
+      <c r="AY19" s="18">
+        <v>9</v>
+      </c>
+      <c r="AZ19" s="18">
         <v>40</v>
       </c>
-      <c r="BA19" s="19">
+      <c r="BA19" s="18">
         <v>1</v>
       </c>
-      <c r="BB19" s="19">
-        <v>2</v>
-      </c>
-      <c r="BC19" s="19">
-        <v>3</v>
-      </c>
-      <c r="BD19" s="19">
-        <v>4</v>
-      </c>
-      <c r="BE19" s="19">
+      <c r="BB19" s="18">
+        <v>2</v>
+      </c>
+      <c r="BC19" s="18">
+        <v>3</v>
+      </c>
+      <c r="BD19" s="18">
+        <v>4</v>
+      </c>
+      <c r="BE19" s="18">
         <v>5</v>
       </c>
-      <c r="BF19" s="19">
-        <v>6</v>
-      </c>
-      <c r="BG19" s="19">
-        <v>7</v>
-      </c>
-      <c r="BH19" s="19">
-        <v>8</v>
-      </c>
-      <c r="BI19" s="19">
-        <v>9</v>
-      </c>
-      <c r="BJ19" s="19">
+      <c r="BF19" s="18">
+        <v>6</v>
+      </c>
+      <c r="BG19" s="18">
+        <v>7</v>
+      </c>
+      <c r="BH19" s="18">
+        <v>8</v>
+      </c>
+      <c r="BI19" s="18">
+        <v>9</v>
+      </c>
+      <c r="BJ19" s="18">
         <v>50</v>
       </c>
-      <c r="BK19" s="19">
+      <c r="BK19" s="18">
         <v>1</v>
       </c>
-      <c r="BL19" s="19">
-        <v>2</v>
-      </c>
-      <c r="BM19" s="19">
-        <v>3</v>
-      </c>
-      <c r="BN19" s="19">
-        <v>4</v>
-      </c>
-      <c r="BO19" s="19">
+      <c r="BL19" s="18">
+        <v>2</v>
+      </c>
+      <c r="BM19" s="18">
+        <v>3</v>
+      </c>
+      <c r="BN19" s="18">
+        <v>4</v>
+      </c>
+      <c r="BO19" s="18">
         <v>5</v>
       </c>
-      <c r="BP19" s="19">
-        <v>6</v>
-      </c>
-      <c r="BQ19" s="19">
-        <v>7</v>
-      </c>
-      <c r="BR19" s="19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:70" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BP19" s="18">
+        <v>6</v>
+      </c>
+      <c r="BQ19" s="18">
+        <v>7</v>
+      </c>
+      <c r="BR19" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:70" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
@@ -2146,15 +2203,15 @@
       <c r="G20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="33" t="s">
+      <c r="K20" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="33"/>
-    </row>
-    <row r="21" spans="2:70" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="23"/>
+    </row>
+    <row r="21" spans="1:70" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
@@ -2173,36 +2230,36 @@
       <c r="G21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="34"/>
-      <c r="AF21" s="34"/>
-      <c r="AG21" s="34"/>
-    </row>
-    <row r="22" spans="2:70" x14ac:dyDescent="0.3">
+      <c r="K21" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="24"/>
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="24"/>
+    </row>
+    <row r="22" spans="1:70" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
         <v>7</v>
       </c>
@@ -2221,24 +2278,24 @@
       <c r="G22" s="11">
         <v>2</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="L22" s="33"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="34"/>
-    </row>
-    <row r="23" spans="2:70" x14ac:dyDescent="0.3">
+      <c r="K22" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="23"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="24"/>
+    </row>
+    <row r="23" spans="1:70" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="s">
         <v>8</v>
       </c>
@@ -2257,61 +2314,61 @@
       <c r="G23" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K23" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" s="33"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="35"/>
-      <c r="AE23" s="35"/>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="35"/>
-      <c r="AH23" s="34"/>
-      <c r="AI23" s="34"/>
-      <c r="AJ23" s="34"/>
-      <c r="AK23" s="34"/>
-      <c r="AL23" s="34"/>
-      <c r="AM23" s="34"/>
-      <c r="AN23" s="34"/>
-      <c r="AO23" s="34"/>
-      <c r="AP23" s="34"/>
-      <c r="AQ23" s="34"/>
-      <c r="AR23" s="35"/>
-      <c r="AS23" s="35"/>
-      <c r="AT23" s="35"/>
-      <c r="AU23" s="35"/>
-      <c r="AV23" s="35"/>
-      <c r="AW23" s="35"/>
-      <c r="AX23" s="35"/>
-      <c r="AY23" s="35"/>
-      <c r="AZ23" s="35"/>
-      <c r="BA23" s="35"/>
-      <c r="BB23" s="34"/>
-      <c r="BC23" s="34"/>
-      <c r="BD23" s="34"/>
-      <c r="BE23" s="34"/>
-      <c r="BF23" s="34"/>
-      <c r="BG23" s="34"/>
-      <c r="BH23" s="34"/>
-      <c r="BI23" s="34"/>
-      <c r="BJ23" s="34"/>
-      <c r="BK23" s="34"/>
-      <c r="BL23" s="34"/>
-      <c r="BM23" s="34"/>
-      <c r="BN23" s="34"/>
-      <c r="BO23" s="34"/>
-      <c r="BP23" s="34"/>
-      <c r="BQ23" s="34"/>
-    </row>
-    <row r="24" spans="2:70" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K23" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="23"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="24"/>
+      <c r="AI23" s="24"/>
+      <c r="AJ23" s="24"/>
+      <c r="AK23" s="24"/>
+      <c r="AL23" s="24"/>
+      <c r="AM23" s="24"/>
+      <c r="AN23" s="24"/>
+      <c r="AO23" s="24"/>
+      <c r="AP23" s="24"/>
+      <c r="AQ23" s="24"/>
+      <c r="AR23" s="25"/>
+      <c r="AS23" s="25"/>
+      <c r="AT23" s="25"/>
+      <c r="AU23" s="25"/>
+      <c r="AV23" s="25"/>
+      <c r="AW23" s="25"/>
+      <c r="AX23" s="25"/>
+      <c r="AY23" s="25"/>
+      <c r="AZ23" s="25"/>
+      <c r="BA23" s="25"/>
+      <c r="BB23" s="24"/>
+      <c r="BC23" s="24"/>
+      <c r="BD23" s="24"/>
+      <c r="BE23" s="24"/>
+      <c r="BF23" s="24"/>
+      <c r="BG23" s="24"/>
+      <c r="BH23" s="24"/>
+      <c r="BI23" s="24"/>
+      <c r="BJ23" s="24"/>
+      <c r="BK23" s="24"/>
+      <c r="BL23" s="24"/>
+      <c r="BM23" s="24"/>
+      <c r="BN23" s="24"/>
+      <c r="BO23" s="24"/>
+      <c r="BP23" s="24"/>
+      <c r="BQ23" s="24"/>
+    </row>
+    <row r="24" spans="1:70" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="13" t="s">
         <v>9</v>
       </c>
@@ -2330,908 +2387,1088 @@
       <c r="G24" s="15">
         <v>12</v>
       </c>
-      <c r="H24" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="L24" s="33"/>
-      <c r="AF24" s="35"/>
-      <c r="AG24" s="35"/>
-      <c r="AH24" s="35"/>
-      <c r="AI24" s="35"/>
-      <c r="AJ24" s="35"/>
-      <c r="AK24" s="35"/>
-      <c r="AL24" s="35"/>
-      <c r="AM24" s="35"/>
-      <c r="AN24" s="35"/>
-      <c r="AO24" s="35"/>
-      <c r="AP24" s="35"/>
-      <c r="AQ24" s="35"/>
-      <c r="AR24" s="34"/>
-      <c r="AS24" s="34"/>
-      <c r="AT24" s="34"/>
-      <c r="AU24" s="34"/>
-      <c r="AV24" s="34"/>
-      <c r="AW24" s="34"/>
-      <c r="AX24" s="34"/>
-      <c r="AY24" s="34"/>
-      <c r="AZ24" s="34"/>
-      <c r="BA24" s="34"/>
-    </row>
-    <row r="25" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B25" s="17" t="s">
+      <c r="H24" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="23"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
+      <c r="AI24" s="25"/>
+      <c r="AJ24" s="25"/>
+      <c r="AK24" s="25"/>
+      <c r="AL24" s="25"/>
+      <c r="AM24" s="25"/>
+      <c r="AN24" s="25"/>
+      <c r="AO24" s="25"/>
+      <c r="AP24" s="25"/>
+      <c r="AQ24" s="25"/>
+      <c r="AR24" s="24"/>
+      <c r="AS24" s="24"/>
+      <c r="AT24" s="24"/>
+      <c r="AU24" s="24"/>
+      <c r="AV24" s="24"/>
+      <c r="AW24" s="24"/>
+      <c r="AX24" s="24"/>
+      <c r="AY24" s="24"/>
+      <c r="AZ24" s="24"/>
+      <c r="BA24" s="24"/>
+    </row>
+    <row r="25" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="B25" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18" t="s">
+      <c r="C25" s="26"/>
+      <c r="D25" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-    </row>
-    <row r="28" spans="2:70" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L28" s="19">
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="27"/>
+    </row>
+    <row r="27" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="27"/>
+    </row>
+    <row r="28" spans="1:70" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="27"/>
+      <c r="L28" s="18">
         <v>0</v>
       </c>
-      <c r="M28" s="19">
+      <c r="M28" s="18">
         <v>1</v>
       </c>
-      <c r="N28" s="19">
-        <v>2</v>
-      </c>
-      <c r="O28" s="19">
-        <v>3</v>
-      </c>
-      <c r="P28" s="19">
-        <v>4</v>
-      </c>
-      <c r="Q28" s="19">
+      <c r="N28" s="18">
+        <v>2</v>
+      </c>
+      <c r="O28" s="18">
+        <v>3</v>
+      </c>
+      <c r="P28" s="18">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="18">
         <v>5</v>
       </c>
-      <c r="R28" s="19">
-        <v>6</v>
-      </c>
-      <c r="S28" s="19">
-        <v>7</v>
-      </c>
-      <c r="T28" s="19">
-        <v>8</v>
-      </c>
-      <c r="U28" s="19">
-        <v>9</v>
-      </c>
-      <c r="V28" s="19">
+      <c r="R28" s="18">
+        <v>6</v>
+      </c>
+      <c r="S28" s="18">
+        <v>7</v>
+      </c>
+      <c r="T28" s="18">
+        <v>8</v>
+      </c>
+      <c r="U28" s="18">
+        <v>9</v>
+      </c>
+      <c r="V28" s="18">
         <v>10</v>
       </c>
-      <c r="W28" s="19">
+      <c r="W28" s="18">
         <v>1</v>
       </c>
-      <c r="X28" s="19">
-        <v>2</v>
-      </c>
-      <c r="Y28" s="19">
-        <v>3</v>
-      </c>
-      <c r="Z28" s="19">
-        <v>4</v>
-      </c>
-      <c r="AA28" s="19">
+      <c r="X28" s="18">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="18">
+        <v>3</v>
+      </c>
+      <c r="Z28" s="18">
+        <v>4</v>
+      </c>
+      <c r="AA28" s="18">
         <v>5</v>
       </c>
-      <c r="AB28" s="19">
-        <v>6</v>
-      </c>
-      <c r="AC28" s="19">
-        <v>7</v>
-      </c>
-      <c r="AD28" s="19">
-        <v>8</v>
-      </c>
-      <c r="AE28" s="19">
-        <v>9</v>
-      </c>
-      <c r="AF28" s="19">
+      <c r="AB28" s="18">
+        <v>6</v>
+      </c>
+      <c r="AC28" s="18">
+        <v>7</v>
+      </c>
+      <c r="AD28" s="18">
+        <v>8</v>
+      </c>
+      <c r="AE28" s="18">
+        <v>9</v>
+      </c>
+      <c r="AF28" s="18">
         <v>20</v>
       </c>
-      <c r="AG28" s="19">
+      <c r="AG28" s="18">
         <v>1</v>
       </c>
-      <c r="AH28" s="19">
-        <v>2</v>
-      </c>
-      <c r="AI28" s="19">
-        <v>3</v>
-      </c>
-      <c r="AJ28" s="19">
-        <v>4</v>
-      </c>
-      <c r="AK28" s="19">
+      <c r="AH28" s="18">
+        <v>2</v>
+      </c>
+      <c r="AI28" s="18">
+        <v>3</v>
+      </c>
+      <c r="AJ28" s="18">
+        <v>4</v>
+      </c>
+      <c r="AK28" s="18">
         <v>5</v>
       </c>
-      <c r="AL28" s="19">
-        <v>6</v>
-      </c>
-      <c r="AM28" s="19">
-        <v>7</v>
-      </c>
-      <c r="AN28" s="19">
-        <v>8</v>
-      </c>
-      <c r="AO28" s="19">
-        <v>9</v>
-      </c>
-      <c r="AP28" s="19">
+      <c r="AL28" s="18">
+        <v>6</v>
+      </c>
+      <c r="AM28" s="18">
+        <v>7</v>
+      </c>
+      <c r="AN28" s="18">
+        <v>8</v>
+      </c>
+      <c r="AO28" s="18">
+        <v>9</v>
+      </c>
+      <c r="AP28" s="18">
         <v>30</v>
       </c>
-      <c r="AQ28" s="19">
+      <c r="AQ28" s="18">
         <v>1</v>
       </c>
-      <c r="AR28" s="19">
-        <v>2</v>
-      </c>
-      <c r="AS28" s="19">
-        <v>3</v>
-      </c>
-      <c r="AT28" s="19">
-        <v>4</v>
-      </c>
-      <c r="AU28" s="19">
+      <c r="AR28" s="18">
+        <v>2</v>
+      </c>
+      <c r="AS28" s="18">
+        <v>3</v>
+      </c>
+      <c r="AT28" s="18">
+        <v>4</v>
+      </c>
+      <c r="AU28" s="18">
         <v>5</v>
       </c>
-      <c r="AV28" s="19">
-        <v>6</v>
-      </c>
-      <c r="AW28" s="19">
-        <v>7</v>
-      </c>
-      <c r="AX28" s="19">
-        <v>8</v>
-      </c>
-      <c r="AY28" s="19">
-        <v>9</v>
-      </c>
-      <c r="AZ28" s="19">
+      <c r="AV28" s="18">
+        <v>6</v>
+      </c>
+      <c r="AW28" s="18">
+        <v>7</v>
+      </c>
+      <c r="AX28" s="18">
+        <v>8</v>
+      </c>
+      <c r="AY28" s="18">
+        <v>9</v>
+      </c>
+      <c r="AZ28" s="18">
         <v>40</v>
       </c>
-      <c r="BA28" s="19">
+      <c r="BA28" s="18">
         <v>1</v>
       </c>
-      <c r="BB28" s="19">
-        <v>2</v>
-      </c>
-      <c r="BC28" s="19">
-        <v>3</v>
-      </c>
-      <c r="BD28" s="19">
-        <v>4</v>
-      </c>
-      <c r="BE28" s="19">
+      <c r="BB28" s="18">
+        <v>2</v>
+      </c>
+      <c r="BC28" s="18">
+        <v>3</v>
+      </c>
+      <c r="BD28" s="18">
+        <v>4</v>
+      </c>
+      <c r="BE28" s="18">
         <v>5</v>
       </c>
-      <c r="BF28" s="19">
-        <v>6</v>
-      </c>
-      <c r="BG28" s="19">
-        <v>7</v>
-      </c>
-      <c r="BH28" s="19">
-        <v>8</v>
-      </c>
-      <c r="BI28" s="19">
-        <v>9</v>
-      </c>
-      <c r="BJ28" s="19">
+      <c r="BF28" s="18">
+        <v>6</v>
+      </c>
+      <c r="BG28" s="18">
+        <v>7</v>
+      </c>
+      <c r="BH28" s="18">
+        <v>8</v>
+      </c>
+      <c r="BI28" s="18">
+        <v>9</v>
+      </c>
+      <c r="BJ28" s="18">
         <v>50</v>
       </c>
-      <c r="BK28" s="19">
+      <c r="BK28" s="18">
         <v>1</v>
       </c>
-      <c r="BL28" s="19">
-        <v>2</v>
-      </c>
-      <c r="BM28" s="19">
-        <v>3</v>
-      </c>
-      <c r="BN28" s="19">
-        <v>4</v>
-      </c>
-      <c r="BO28" s="19">
+      <c r="BL28" s="18">
+        <v>2</v>
+      </c>
+      <c r="BM28" s="18">
+        <v>3</v>
+      </c>
+      <c r="BN28" s="18">
+        <v>4</v>
+      </c>
+      <c r="BO28" s="18">
         <v>5</v>
       </c>
-      <c r="BP28" s="19">
-        <v>6</v>
-      </c>
-      <c r="BQ28" s="19">
-        <v>7</v>
-      </c>
-      <c r="BR28" s="19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="2:70" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="1" t="s">
+      <c r="BP28" s="18">
+        <v>6</v>
+      </c>
+      <c r="BQ28" s="18">
+        <v>7</v>
+      </c>
+      <c r="BR28" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:70" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="27"/>
+      <c r="B29" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="D29" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="K29" s="33" t="s">
+      <c r="J29" s="27"/>
+      <c r="K29" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="33"/>
-    </row>
-    <row r="30" spans="2:70" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="6">
+      <c r="L29" s="23"/>
+    </row>
+    <row r="30" spans="1:70" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="27"/>
+      <c r="B30" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="34">
         <v>0</v>
       </c>
-      <c r="D30" s="7">
-        <v>3</v>
-      </c>
-      <c r="E30" s="7">
+      <c r="D30" s="35">
+        <v>3</v>
+      </c>
+      <c r="E30" s="35">
         <v>0</v>
       </c>
-      <c r="F30" s="7">
-        <v>3</v>
-      </c>
-      <c r="G30" s="7">
+      <c r="F30" s="35">
+        <v>3</v>
+      </c>
+      <c r="G30" s="35">
         <v>0</v>
       </c>
-      <c r="H30" s="29" t="s">
+      <c r="H30" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="K30" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-    </row>
-    <row r="31" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B31" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="10">
-        <v>3</v>
-      </c>
-      <c r="D31" s="11">
+      <c r="I30" s="37">
+        <v>3</v>
+      </c>
+      <c r="J30" s="27"/>
+      <c r="K30" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+    </row>
+    <row r="31" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A31" s="27"/>
+      <c r="B31" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="39">
+        <v>3</v>
+      </c>
+      <c r="D31" s="40">
         <v>10</v>
       </c>
-      <c r="E31" s="11">
-        <v>3</v>
-      </c>
-      <c r="F31" s="11">
+      <c r="E31" s="40">
+        <v>3</v>
+      </c>
+      <c r="F31" s="40">
         <v>13</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="40">
         <v>0</v>
       </c>
-      <c r="H31" s="30" t="s">
+      <c r="H31" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="I31" s="12">
-        <v>2</v>
-      </c>
-      <c r="K31" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="L31" s="33"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="34"/>
-    </row>
-    <row r="32" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B32" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="10">
-        <v>3</v>
-      </c>
-      <c r="D32" s="11">
-        <v>3</v>
-      </c>
-      <c r="E32" s="11">
+      <c r="I31" s="42">
+        <v>10</v>
+      </c>
+      <c r="J31" s="27"/>
+      <c r="K31" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="23"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="24"/>
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+    </row>
+    <row r="32" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A32" s="27"/>
+      <c r="B32" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="39">
+        <v>3</v>
+      </c>
+      <c r="D32" s="40">
+        <v>3</v>
+      </c>
+      <c r="E32" s="40">
         <v>13</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="40">
         <v>16</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="40">
         <v>10</v>
       </c>
-      <c r="H32" s="30" t="s">
+      <c r="H32" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="12">
-        <v>2.6</v>
-      </c>
-      <c r="K32" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="33"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
-    </row>
-    <row r="33" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B33" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="27">
-        <v>6</v>
-      </c>
-      <c r="D33" s="28">
-        <v>6</v>
-      </c>
-      <c r="E33" s="28">
+      <c r="I32" s="42">
+        <v>13</v>
+      </c>
+      <c r="J32" s="27"/>
+      <c r="K32" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="23"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="24"/>
+      <c r="AA32" s="24"/>
+    </row>
+    <row r="33" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A33" s="27"/>
+      <c r="B33" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="44">
+        <v>6</v>
+      </c>
+      <c r="D33" s="45">
+        <v>6</v>
+      </c>
+      <c r="E33" s="45">
         <v>16</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="45">
         <v>22</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G33" s="45">
         <v>10</v>
       </c>
-      <c r="H33" s="31" t="s">
+      <c r="H33" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="12">
-        <v>3.2</v>
-      </c>
-      <c r="K33" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="L33" s="33"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="35"/>
-      <c r="Z33" s="35"/>
-      <c r="AA33" s="35"/>
-      <c r="AB33" s="34"/>
-      <c r="AC33" s="34"/>
-      <c r="AD33" s="34"/>
-      <c r="AE33" s="34"/>
-      <c r="AF33" s="34"/>
-      <c r="AG33" s="34"/>
-    </row>
-    <row r="34" spans="2:70" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="13" t="s">
+      <c r="I33" s="42">
+        <v>16</v>
+      </c>
+      <c r="J33" s="27"/>
+      <c r="K33" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="23"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="24"/>
+      <c r="AC33" s="24"/>
+      <c r="AD33" s="24"/>
+      <c r="AE33" s="24"/>
+      <c r="AF33" s="24"/>
+      <c r="AG33" s="24"/>
+    </row>
+    <row r="34" spans="1:70" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="27"/>
+      <c r="B34" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="14">
-        <v>8</v>
-      </c>
-      <c r="D34" s="15">
-        <v>3</v>
-      </c>
-      <c r="E34" s="15">
+      <c r="C34" s="48">
+        <v>8</v>
+      </c>
+      <c r="D34" s="49">
+        <v>3</v>
+      </c>
+      <c r="E34" s="49">
         <v>22</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="49">
         <v>25</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="49">
         <v>14</v>
       </c>
-      <c r="H34" s="32"/>
-      <c r="I34" s="16">
-        <v>3.4</v>
-      </c>
-      <c r="K34" s="33" t="s">
+      <c r="H34" s="50"/>
+      <c r="I34" s="51">
+        <v>17</v>
+      </c>
+      <c r="J34" s="27"/>
+      <c r="K34" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L34" s="33"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="35"/>
-      <c r="Y34" s="35"/>
-      <c r="Z34" s="35"/>
-      <c r="AA34" s="35"/>
-      <c r="AB34" s="35"/>
-      <c r="AC34" s="35"/>
-      <c r="AD34" s="35"/>
-      <c r="AE34" s="35"/>
-      <c r="AF34" s="35"/>
-      <c r="AG34" s="35"/>
-      <c r="AH34" s="34"/>
-      <c r="AI34" s="34"/>
-      <c r="AJ34" s="34"/>
-    </row>
-    <row r="35" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B35" s="24" t="s">
+      <c r="L34" s="23"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="25"/>
+      <c r="AC34" s="25"/>
+      <c r="AD34" s="25"/>
+      <c r="AE34" s="25"/>
+      <c r="AF34" s="25"/>
+      <c r="AG34" s="25"/>
+      <c r="AH34" s="24"/>
+      <c r="AI34" s="24"/>
+      <c r="AJ34" s="24"/>
+    </row>
+    <row r="35" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A35" s="27"/>
+      <c r="B35" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="18" t="s">
+      <c r="C35" s="52"/>
+      <c r="D35" s="53" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B36" s="24" t="s">
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="27"/>
+    </row>
+    <row r="36" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A36" s="27"/>
+      <c r="B36" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="19">
-        <v>2.36</v>
-      </c>
-    </row>
-    <row r="39" spans="2:70" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L39" s="19">
+      <c r="C36" s="54"/>
+      <c r="D36" s="28">
+        <v>11.8</v>
+      </c>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="27"/>
+    </row>
+    <row r="37" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="27"/>
+    </row>
+    <row r="38" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="27"/>
+    </row>
+    <row r="39" spans="1:70" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="27"/>
+      <c r="L39" s="18">
         <v>0</v>
       </c>
-      <c r="M39" s="19">
+      <c r="M39" s="18">
         <v>1</v>
       </c>
-      <c r="N39" s="19">
-        <v>2</v>
-      </c>
-      <c r="O39" s="19">
-        <v>3</v>
-      </c>
-      <c r="P39" s="19">
-        <v>4</v>
-      </c>
-      <c r="Q39" s="19">
+      <c r="N39" s="18">
+        <v>2</v>
+      </c>
+      <c r="O39" s="18">
+        <v>3</v>
+      </c>
+      <c r="P39" s="18">
+        <v>4</v>
+      </c>
+      <c r="Q39" s="18">
         <v>5</v>
       </c>
-      <c r="R39" s="19">
-        <v>6</v>
-      </c>
-      <c r="S39" s="19">
-        <v>7</v>
-      </c>
-      <c r="T39" s="19">
-        <v>8</v>
-      </c>
-      <c r="U39" s="19">
-        <v>9</v>
-      </c>
-      <c r="V39" s="19">
+      <c r="R39" s="18">
+        <v>6</v>
+      </c>
+      <c r="S39" s="18">
+        <v>7</v>
+      </c>
+      <c r="T39" s="18">
+        <v>8</v>
+      </c>
+      <c r="U39" s="18">
+        <v>9</v>
+      </c>
+      <c r="V39" s="18">
         <v>10</v>
       </c>
-      <c r="W39" s="19">
+      <c r="W39" s="18">
         <v>1</v>
       </c>
-      <c r="X39" s="19">
-        <v>2</v>
-      </c>
-      <c r="Y39" s="19">
-        <v>3</v>
-      </c>
-      <c r="Z39" s="19">
-        <v>4</v>
-      </c>
-      <c r="AA39" s="19">
+      <c r="X39" s="18">
+        <v>2</v>
+      </c>
+      <c r="Y39" s="18">
+        <v>3</v>
+      </c>
+      <c r="Z39" s="18">
+        <v>4</v>
+      </c>
+      <c r="AA39" s="18">
         <v>5</v>
       </c>
-      <c r="AB39" s="19">
-        <v>6</v>
-      </c>
-      <c r="AC39" s="19">
-        <v>7</v>
-      </c>
-      <c r="AD39" s="19">
-        <v>8</v>
-      </c>
-      <c r="AE39" s="19">
-        <v>9</v>
-      </c>
-      <c r="AF39" s="19">
+      <c r="AB39" s="18">
+        <v>6</v>
+      </c>
+      <c r="AC39" s="18">
+        <v>7</v>
+      </c>
+      <c r="AD39" s="18">
+        <v>8</v>
+      </c>
+      <c r="AE39" s="18">
+        <v>9</v>
+      </c>
+      <c r="AF39" s="18">
         <v>20</v>
       </c>
-      <c r="AG39" s="19">
+      <c r="AG39" s="18">
         <v>1</v>
       </c>
-      <c r="AH39" s="19">
-        <v>2</v>
-      </c>
-      <c r="AI39" s="19">
-        <v>3</v>
-      </c>
-      <c r="AJ39" s="19">
-        <v>4</v>
-      </c>
-      <c r="AK39" s="19">
+      <c r="AH39" s="18">
+        <v>2</v>
+      </c>
+      <c r="AI39" s="18">
+        <v>3</v>
+      </c>
+      <c r="AJ39" s="18">
+        <v>4</v>
+      </c>
+      <c r="AK39" s="18">
         <v>5</v>
       </c>
-      <c r="AL39" s="19">
-        <v>6</v>
-      </c>
-      <c r="AM39" s="19">
-        <v>7</v>
-      </c>
-      <c r="AN39" s="19">
-        <v>8</v>
-      </c>
-      <c r="AO39" s="19">
-        <v>9</v>
-      </c>
-      <c r="AP39" s="19">
+      <c r="AL39" s="18">
+        <v>6</v>
+      </c>
+      <c r="AM39" s="18">
+        <v>7</v>
+      </c>
+      <c r="AN39" s="18">
+        <v>8</v>
+      </c>
+      <c r="AO39" s="18">
+        <v>9</v>
+      </c>
+      <c r="AP39" s="18">
         <v>30</v>
       </c>
-      <c r="AQ39" s="19">
+      <c r="AQ39" s="18">
         <v>1</v>
       </c>
-      <c r="AR39" s="19">
-        <v>2</v>
-      </c>
-      <c r="AS39" s="19">
-        <v>3</v>
-      </c>
-      <c r="AT39" s="19">
-        <v>4</v>
-      </c>
-      <c r="AU39" s="19">
+      <c r="AR39" s="18">
+        <v>2</v>
+      </c>
+      <c r="AS39" s="18">
+        <v>3</v>
+      </c>
+      <c r="AT39" s="18">
+        <v>4</v>
+      </c>
+      <c r="AU39" s="18">
         <v>5</v>
       </c>
-      <c r="AV39" s="19">
-        <v>6</v>
-      </c>
-      <c r="AW39" s="19">
-        <v>7</v>
-      </c>
-      <c r="AX39" s="19">
-        <v>8</v>
-      </c>
-      <c r="AY39" s="19">
-        <v>9</v>
-      </c>
-      <c r="AZ39" s="19">
+      <c r="AV39" s="18">
+        <v>6</v>
+      </c>
+      <c r="AW39" s="18">
+        <v>7</v>
+      </c>
+      <c r="AX39" s="18">
+        <v>8</v>
+      </c>
+      <c r="AY39" s="18">
+        <v>9</v>
+      </c>
+      <c r="AZ39" s="18">
         <v>40</v>
       </c>
-      <c r="BA39" s="19">
+      <c r="BA39" s="18">
         <v>1</v>
       </c>
-      <c r="BB39" s="19">
-        <v>2</v>
-      </c>
-      <c r="BC39" s="19">
-        <v>3</v>
-      </c>
-      <c r="BD39" s="19">
-        <v>4</v>
-      </c>
-      <c r="BE39" s="19">
+      <c r="BB39" s="18">
+        <v>2</v>
+      </c>
+      <c r="BC39" s="18">
+        <v>3</v>
+      </c>
+      <c r="BD39" s="18">
+        <v>4</v>
+      </c>
+      <c r="BE39" s="18">
         <v>5</v>
       </c>
-      <c r="BF39" s="19">
-        <v>6</v>
-      </c>
-      <c r="BG39" s="19">
-        <v>7</v>
-      </c>
-      <c r="BH39" s="19">
-        <v>8</v>
-      </c>
-      <c r="BI39" s="19">
-        <v>9</v>
-      </c>
-      <c r="BJ39" s="19">
+      <c r="BF39" s="18">
+        <v>6</v>
+      </c>
+      <c r="BG39" s="18">
+        <v>7</v>
+      </c>
+      <c r="BH39" s="18">
+        <v>8</v>
+      </c>
+      <c r="BI39" s="18">
+        <v>9</v>
+      </c>
+      <c r="BJ39" s="18">
         <v>50</v>
       </c>
-      <c r="BK39" s="19">
+      <c r="BK39" s="18">
         <v>1</v>
       </c>
-      <c r="BL39" s="19">
-        <v>2</v>
-      </c>
-      <c r="BM39" s="19">
-        <v>3</v>
-      </c>
-      <c r="BN39" s="19">
-        <v>4</v>
-      </c>
-      <c r="BO39" s="19">
+      <c r="BL39" s="18">
+        <v>2</v>
+      </c>
+      <c r="BM39" s="18">
+        <v>3</v>
+      </c>
+      <c r="BN39" s="18">
+        <v>4</v>
+      </c>
+      <c r="BO39" s="18">
         <v>5</v>
       </c>
-      <c r="BP39" s="19">
-        <v>6</v>
-      </c>
-      <c r="BQ39" s="19">
-        <v>7</v>
-      </c>
-      <c r="BR39" s="19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="2:70" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="1" t="s">
+      <c r="BP39" s="18">
+        <v>6</v>
+      </c>
+      <c r="BQ39" s="18">
+        <v>7</v>
+      </c>
+      <c r="BR39" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:70" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="27"/>
+      <c r="B40" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40" s="3" t="s">
+      <c r="D40" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="K40" s="33" t="s">
+      <c r="J40" s="27"/>
+      <c r="K40" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L40" s="33"/>
-    </row>
-    <row r="41" spans="2:70" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="6">
+      <c r="L40" s="23"/>
+    </row>
+    <row r="41" spans="1:70" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="27"/>
+      <c r="B41" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="34">
         <v>0</v>
       </c>
-      <c r="D41" s="7">
-        <v>3</v>
-      </c>
-      <c r="E41" s="7">
+      <c r="D41" s="35">
+        <v>3</v>
+      </c>
+      <c r="E41" s="35">
         <v>0</v>
       </c>
-      <c r="F41" s="7">
-        <v>3</v>
-      </c>
-      <c r="G41" s="7">
+      <c r="F41" s="35">
+        <v>3</v>
+      </c>
+      <c r="G41" s="35">
         <v>0</v>
       </c>
-      <c r="H41" s="29" t="s">
+      <c r="H41" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I41" s="8">
-        <v>0.375</v>
-      </c>
-      <c r="K41" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-    </row>
-    <row r="42" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B42" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="10" t="s">
+      <c r="I41" s="37">
+        <v>3</v>
+      </c>
+      <c r="J41" s="27"/>
+      <c r="K41" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+    </row>
+    <row r="42" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A42" s="27"/>
+      <c r="B42" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="H42" s="30" t="s">
+      <c r="H42" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="I42" s="12" t="s">
+      <c r="I42" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="K42" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="L42" s="33"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="34"/>
-      <c r="V42" s="35"/>
-      <c r="W42" s="35"/>
-      <c r="X42" s="35"/>
-      <c r="Y42" s="35"/>
-      <c r="Z42" s="34"/>
-      <c r="AA42" s="34"/>
-      <c r="AB42" s="34"/>
-      <c r="AC42" s="34"/>
-      <c r="AG42" s="35"/>
-      <c r="AH42" s="35"/>
-      <c r="AI42" s="34"/>
-      <c r="AJ42" s="34"/>
-    </row>
-    <row r="43" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B43" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="10">
-        <v>3</v>
-      </c>
-      <c r="D43" s="11">
-        <v>3</v>
-      </c>
-      <c r="E43" s="11">
-        <v>7</v>
-      </c>
-      <c r="F43" s="11">
+      <c r="J42" s="27"/>
+      <c r="K42" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L42" s="23"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="25"/>
+      <c r="X42" s="25"/>
+      <c r="Y42" s="25"/>
+      <c r="Z42" s="24"/>
+      <c r="AA42" s="24"/>
+      <c r="AB42" s="24"/>
+      <c r="AC42" s="24"/>
+      <c r="AG42" s="25"/>
+      <c r="AH42" s="25"/>
+      <c r="AI42" s="24"/>
+      <c r="AJ42" s="24"/>
+    </row>
+    <row r="43" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A43" s="27"/>
+      <c r="B43" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="39">
+        <v>3</v>
+      </c>
+      <c r="D43" s="40">
+        <v>3</v>
+      </c>
+      <c r="E43" s="40">
+        <v>7</v>
+      </c>
+      <c r="F43" s="40">
         <v>10</v>
       </c>
-      <c r="G43" s="11">
-        <v>4</v>
-      </c>
-      <c r="H43" s="30" t="s">
+      <c r="G43" s="40">
+        <v>4</v>
+      </c>
+      <c r="H43" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="I43" s="12">
-        <v>0.875</v>
-      </c>
-      <c r="K43" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="L43" s="33"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="35"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="34"/>
-    </row>
-    <row r="44" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B44" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="27" t="s">
+      <c r="I43" s="42">
+        <v>7</v>
+      </c>
+      <c r="J43" s="27"/>
+      <c r="K43" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="23"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="24"/>
+      <c r="U43" s="24"/>
+    </row>
+    <row r="44" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A44" s="27"/>
+      <c r="B44" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="28" t="s">
+      <c r="E44" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="F44" s="28" t="s">
+      <c r="F44" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="G44" s="28" t="s">
+      <c r="G44" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="H44" s="31" t="s">
+      <c r="H44" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="I44" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="K44" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="L44" s="33"/>
-      <c r="R44" s="35"/>
-      <c r="S44" s="35"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="35"/>
-      <c r="V44" s="34"/>
-      <c r="W44" s="34"/>
-      <c r="X44" s="34"/>
-      <c r="Y44" s="34"/>
-      <c r="AD44" s="35"/>
-      <c r="AE44" s="35"/>
-      <c r="AF44" s="35"/>
-      <c r="AG44" s="34"/>
-      <c r="AH44" s="34"/>
-    </row>
-    <row r="45" spans="2:70" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="13" t="s">
+      <c r="J44" s="27"/>
+      <c r="K44" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L44" s="23"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="25"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="24"/>
+      <c r="W44" s="24"/>
+      <c r="X44" s="24"/>
+      <c r="Y44" s="24"/>
+      <c r="AD44" s="25"/>
+      <c r="AE44" s="25"/>
+      <c r="AF44" s="25"/>
+      <c r="AG44" s="24"/>
+      <c r="AH44" s="24"/>
+    </row>
+    <row r="45" spans="1:70" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="27"/>
+      <c r="B45" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="14">
-        <v>8</v>
-      </c>
-      <c r="D45" s="15">
-        <v>3</v>
-      </c>
-      <c r="E45" s="15">
+      <c r="C45" s="48">
+        <v>8</v>
+      </c>
+      <c r="D45" s="49">
+        <v>3</v>
+      </c>
+      <c r="E45" s="49">
         <v>18</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="49">
         <v>21</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="49">
         <v>10</v>
       </c>
-      <c r="H45" s="32" t="s">
+      <c r="H45" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="I45" s="16">
-        <v>1.625</v>
-      </c>
-      <c r="K45" s="33" t="s">
+      <c r="I45" s="51">
+        <v>13</v>
+      </c>
+      <c r="J45" s="27"/>
+      <c r="K45" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L45" s="33"/>
-      <c r="T45" s="35"/>
-      <c r="U45" s="35"/>
-      <c r="V45" s="35"/>
-      <c r="W45" s="35"/>
-      <c r="X45" s="35"/>
-      <c r="Y45" s="35"/>
-      <c r="Z45" s="35"/>
-      <c r="AA45" s="35"/>
-      <c r="AB45" s="35"/>
-      <c r="AC45" s="35"/>
-      <c r="AD45" s="34"/>
-      <c r="AE45" s="34"/>
-      <c r="AF45" s="34"/>
-    </row>
-    <row r="46" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B46" s="24" t="s">
+      <c r="L45" s="23"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="25"/>
+      <c r="V45" s="25"/>
+      <c r="W45" s="25"/>
+      <c r="X45" s="25"/>
+      <c r="Y45" s="25"/>
+      <c r="Z45" s="25"/>
+      <c r="AA45" s="25"/>
+      <c r="AB45" s="25"/>
+      <c r="AC45" s="25"/>
+      <c r="AD45" s="24"/>
+      <c r="AE45" s="24"/>
+      <c r="AF45" s="24"/>
+    </row>
+    <row r="46" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A46" s="27"/>
+      <c r="B46" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="18" t="s">
+      <c r="C46" s="52"/>
+      <c r="D46" s="53" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="47" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B47" s="24" t="s">
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="27"/>
+    </row>
+    <row r="47" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A47" s="27"/>
+      <c r="B47" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="19">
-        <v>0.96860000000000002</v>
-      </c>
+      <c r="C47" s="54"/>
+      <c r="D47" s="28">
+        <v>6.5</v>
+      </c>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="27"/>
+    </row>
+    <row r="48" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="27"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="27"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="27"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="27"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/AUGHMI_0322/AUGHMI_0322_Ütemezések.xlsx
+++ b/AUGHMI_0322/AUGHMI_0322_Ütemezések.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dokumentumok\ME doc\2-félév\Operációs rendszerek\Gyakorlati feladatok\Gyak7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFC0762-408B-4CD1-8FF5-DD7995B56BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9C1E48-3332-4061-B56C-C79E3E57F84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4737378E-3245-4E5B-B1F7-E42F283A2703}"/>
   </bookViews>
@@ -169,15 +169,6 @@
     <t>10, 10</t>
   </si>
   <si>
-    <t>45/4</t>
-  </si>
-  <si>
-    <t>29/4</t>
-  </si>
-  <si>
-    <t>41/6</t>
-  </si>
-  <si>
     <t>Átlag körülfordulás:</t>
   </si>
   <si>
@@ -185,9 +176,6 @@
   </si>
   <si>
     <t>P3, P4, P5</t>
-  </si>
-  <si>
-    <t>34/5</t>
   </si>
   <si>
     <t>RR: 4ms</t>
@@ -245,9 +233,6 @@
     <t>P4, P2</t>
   </si>
   <si>
-    <t>6, 18</t>
-  </si>
-  <si>
     <t>10, 21</t>
   </si>
   <si>
@@ -282,28 +267,43 @@
     </r>
   </si>
   <si>
-    <t>3, 10, 21</t>
-  </si>
-  <si>
     <t>3, 14, 23</t>
   </si>
   <si>
     <t>7, 18, 25</t>
   </si>
   <si>
-    <t>0, 4, 2</t>
-  </si>
-  <si>
-    <t>4, 3</t>
-  </si>
-  <si>
-    <t>27/8</t>
-  </si>
-  <si>
-    <t>4, 8, 4</t>
-  </si>
-  <si>
-    <t>8, 5</t>
+    <t>6,8</t>
+  </si>
+  <si>
+    <t>3, 7, 18</t>
+  </si>
+  <si>
+    <t>6, 14</t>
+  </si>
+  <si>
+    <t>0, 7, 5</t>
+  </si>
+  <si>
+    <t>4, 7</t>
+  </si>
+  <si>
+    <t>4, 11, 7</t>
+  </si>
+  <si>
+    <t>8, 9</t>
+  </si>
+  <si>
+    <t>7,4</t>
+  </si>
+  <si>
+    <t>10,25</t>
+  </si>
+  <si>
+    <t>7,25</t>
+  </si>
+  <si>
+    <t>11,25</t>
   </si>
 </sst>
 </file>
@@ -758,9 +758,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -834,14 +831,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1159,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CBBCF3-96C6-40B1-8BC7-4EA58439D21D}">
   <dimension ref="A1:BR52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1584,12 +1584,12 @@
       <c r="BQ6" s="24"/>
     </row>
     <row r="7" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="17" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
@@ -1994,12 +1994,12 @@
       <c r="AQ15" s="24"/>
     </row>
     <row r="16" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="17" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -2418,52 +2418,52 @@
       <c r="BA24" s="24"/>
     </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="26"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="17" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="27"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="26"/>
     </row>
     <row r="27" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="27"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:70" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="27"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="26"/>
       <c r="L28" s="18">
         <v>0</v>
       </c>
@@ -2643,64 +2643,64 @@
       </c>
     </row>
     <row r="29" spans="1:70" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="27"/>
-      <c r="B29" s="29" t="s">
+      <c r="A29" s="26"/>
+      <c r="B29" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="31" t="s">
+      <c r="D29" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="G29" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="H29" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="J29" s="27"/>
+      <c r="I29" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="26"/>
       <c r="K29" s="23" t="s">
         <v>17</v>
       </c>
       <c r="L29" s="23"/>
     </row>
     <row r="30" spans="1:70" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
-      <c r="B30" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="34">
+      <c r="A30" s="26"/>
+      <c r="B30" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="33">
         <v>0</v>
       </c>
-      <c r="D30" s="35">
-        <v>3</v>
-      </c>
-      <c r="E30" s="35">
+      <c r="D30" s="34">
+        <v>3</v>
+      </c>
+      <c r="E30" s="34">
         <v>0</v>
       </c>
-      <c r="F30" s="35">
-        <v>3</v>
-      </c>
-      <c r="G30" s="35">
+      <c r="F30" s="34">
+        <v>3</v>
+      </c>
+      <c r="G30" s="34">
         <v>0</v>
       </c>
-      <c r="H30" s="36" t="s">
+      <c r="H30" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="37">
-        <v>3</v>
-      </c>
-      <c r="J30" s="27"/>
+      <c r="I30" s="36">
+        <v>3</v>
+      </c>
+      <c r="J30" s="26"/>
       <c r="K30" s="23" t="s">
         <v>6</v>
       </c>
@@ -2709,32 +2709,32 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
-      <c r="B31" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="39">
-        <v>3</v>
-      </c>
-      <c r="D31" s="40">
+      <c r="A31" s="26"/>
+      <c r="B31" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="38">
+        <v>3</v>
+      </c>
+      <c r="D31" s="39">
         <v>10</v>
       </c>
-      <c r="E31" s="40">
-        <v>3</v>
-      </c>
-      <c r="F31" s="40">
+      <c r="E31" s="39">
+        <v>3</v>
+      </c>
+      <c r="F31" s="39">
         <v>13</v>
       </c>
-      <c r="G31" s="40">
+      <c r="G31" s="39">
         <v>0</v>
       </c>
-      <c r="H31" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="I31" s="42">
+      <c r="H31" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="41">
         <v>10</v>
       </c>
-      <c r="J31" s="27"/>
+      <c r="J31" s="26"/>
       <c r="K31" s="23" t="s">
         <v>7</v>
       </c>
@@ -2751,32 +2751,32 @@
       <c r="X31" s="24"/>
     </row>
     <row r="32" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
-      <c r="B32" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="39">
-        <v>3</v>
-      </c>
-      <c r="D32" s="40">
-        <v>3</v>
-      </c>
-      <c r="E32" s="40">
+      <c r="A32" s="26"/>
+      <c r="B32" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="38">
+        <v>3</v>
+      </c>
+      <c r="D32" s="39">
+        <v>3</v>
+      </c>
+      <c r="E32" s="39">
         <v>13</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F32" s="39">
         <v>16</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="39">
         <v>10</v>
       </c>
-      <c r="H32" s="41" t="s">
+      <c r="H32" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="42">
+      <c r="I32" s="41">
         <v>13</v>
       </c>
-      <c r="J32" s="27"/>
+      <c r="J32" s="26"/>
       <c r="K32" s="23" t="s">
         <v>8</v>
       </c>
@@ -2796,32 +2796,32 @@
       <c r="AA32" s="24"/>
     </row>
     <row r="33" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
-      <c r="B33" s="43" t="s">
+      <c r="A33" s="26"/>
+      <c r="B33" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="44">
-        <v>6</v>
-      </c>
-      <c r="D33" s="45">
-        <v>6</v>
-      </c>
-      <c r="E33" s="45">
+      <c r="C33" s="43">
+        <v>6</v>
+      </c>
+      <c r="D33" s="44">
+        <v>6</v>
+      </c>
+      <c r="E33" s="44">
         <v>16</v>
       </c>
-      <c r="F33" s="45">
+      <c r="F33" s="44">
         <v>22</v>
       </c>
-      <c r="G33" s="45">
+      <c r="G33" s="44">
         <v>10</v>
       </c>
-      <c r="H33" s="46" t="s">
+      <c r="H33" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="42">
+      <c r="I33" s="41">
         <v>16</v>
       </c>
-      <c r="J33" s="27"/>
+      <c r="J33" s="26"/>
       <c r="K33" s="23" t="s">
         <v>9</v>
       </c>
@@ -2844,30 +2844,30 @@
       <c r="AG33" s="24"/>
     </row>
     <row r="34" spans="1:70" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="27"/>
-      <c r="B34" s="47" t="s">
+      <c r="A34" s="26"/>
+      <c r="B34" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="48">
-        <v>8</v>
-      </c>
-      <c r="D34" s="49">
-        <v>3</v>
-      </c>
-      <c r="E34" s="49">
+      <c r="C34" s="47">
+        <v>8</v>
+      </c>
+      <c r="D34" s="48">
+        <v>3</v>
+      </c>
+      <c r="E34" s="48">
         <v>22</v>
       </c>
-      <c r="F34" s="49">
+      <c r="F34" s="48">
         <v>25</v>
       </c>
-      <c r="G34" s="49">
+      <c r="G34" s="48">
         <v>14</v>
       </c>
-      <c r="H34" s="50"/>
-      <c r="I34" s="51">
+      <c r="H34" s="49"/>
+      <c r="I34" s="50">
         <v>17</v>
       </c>
-      <c r="J34" s="27"/>
+      <c r="J34" s="26"/>
       <c r="K34" s="23" t="s">
         <v>10</v>
       </c>
@@ -2891,72 +2891,72 @@
       <c r="AJ34" s="24"/>
     </row>
     <row r="35" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="52" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="52"/>
-      <c r="D35" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="27"/>
+      <c r="D35" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A36" s="27"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="28">
+        <v>31</v>
+      </c>
+      <c r="C36" s="53"/>
+      <c r="D36" s="27">
         <v>11.8</v>
       </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="27"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="26"/>
     </row>
     <row r="37" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="27"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="26"/>
     </row>
     <row r="38" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="27"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="26"/>
     </row>
     <row r="39" spans="1:70" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="27"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="26"/>
       <c r="L39" s="18">
         <v>0</v>
       </c>
@@ -3136,64 +3136,64 @@
       </c>
     </row>
     <row r="40" spans="1:70" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="27"/>
-      <c r="B40" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="30" t="s">
+      <c r="A40" s="26"/>
+      <c r="B40" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" s="31" t="s">
+      <c r="D40" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="31" t="s">
+      <c r="G40" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H40" s="31" t="s">
+      <c r="H40" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="J40" s="27"/>
+      <c r="I40" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" s="26"/>
       <c r="K40" s="23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L40" s="23"/>
     </row>
     <row r="41" spans="1:70" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="27"/>
-      <c r="B41" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="34">
+      <c r="A41" s="26"/>
+      <c r="B41" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="33">
         <v>0</v>
       </c>
-      <c r="D41" s="35">
-        <v>3</v>
-      </c>
-      <c r="E41" s="35">
+      <c r="D41" s="34">
+        <v>3</v>
+      </c>
+      <c r="E41" s="34">
         <v>0</v>
       </c>
-      <c r="F41" s="35">
-        <v>3</v>
-      </c>
-      <c r="G41" s="35">
+      <c r="F41" s="34">
+        <v>3</v>
+      </c>
+      <c r="G41" s="34">
         <v>0</v>
       </c>
-      <c r="H41" s="36" t="s">
+      <c r="H41" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="I41" s="37">
-        <v>3</v>
-      </c>
-      <c r="J41" s="27"/>
+      <c r="I41" s="36">
+        <v>3</v>
+      </c>
+      <c r="J41" s="26"/>
       <c r="K41" s="23" t="s">
         <v>6</v>
       </c>
@@ -3202,32 +3202,32 @@
       <c r="N41" s="24"/>
     </row>
     <row r="42" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A42" s="27"/>
-      <c r="B42" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="39" t="s">
+      <c r="A42" s="26"/>
+      <c r="B42" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" s="40" t="s">
+      <c r="H42" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="G42" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="H42" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I42" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="J42" s="27"/>
+      <c r="J42" s="26"/>
       <c r="K42" s="23" t="s">
         <v>7</v>
       </c>
@@ -3236,6 +3236,9 @@
       <c r="P42" s="24"/>
       <c r="Q42" s="24"/>
       <c r="R42" s="24"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
       <c r="V42" s="25"/>
       <c r="W42" s="25"/>
       <c r="X42" s="25"/>
@@ -3244,38 +3247,41 @@
       <c r="AA42" s="24"/>
       <c r="AB42" s="24"/>
       <c r="AC42" s="24"/>
+      <c r="AD42" s="25"/>
+      <c r="AE42" s="25"/>
+      <c r="AF42" s="25"/>
       <c r="AG42" s="25"/>
       <c r="AH42" s="25"/>
       <c r="AI42" s="24"/>
       <c r="AJ42" s="24"/>
     </row>
     <row r="43" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A43" s="27"/>
-      <c r="B43" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="39">
-        <v>3</v>
-      </c>
-      <c r="D43" s="40">
-        <v>3</v>
-      </c>
-      <c r="E43" s="40">
-        <v>7</v>
-      </c>
-      <c r="F43" s="40">
+      <c r="A43" s="26"/>
+      <c r="B43" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="38">
+        <v>3</v>
+      </c>
+      <c r="D43" s="39">
+        <v>3</v>
+      </c>
+      <c r="E43" s="39">
+        <v>7</v>
+      </c>
+      <c r="F43" s="39">
         <v>10</v>
       </c>
-      <c r="G43" s="40">
+      <c r="G43" s="39">
         <v>4</v>
       </c>
-      <c r="H43" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="I43" s="42">
-        <v>7</v>
-      </c>
-      <c r="J43" s="27"/>
+      <c r="H43" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="I43" s="41">
+        <v>7</v>
+      </c>
+      <c r="J43" s="26"/>
       <c r="K43" s="23" t="s">
         <v>8</v>
       </c>
@@ -3289,32 +3295,32 @@
       <c r="U43" s="24"/>
     </row>
     <row r="44" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A44" s="27"/>
-      <c r="B44" s="43" t="s">
+      <c r="A44" s="26"/>
+      <c r="B44" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="45" t="s">
+      <c r="C44" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="F44" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="G44" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="H44" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="I44" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="J44" s="27"/>
+      <c r="F44" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="J44" s="26"/>
       <c r="K44" s="23" t="s">
         <v>9</v>
       </c>
@@ -3327,6 +3333,10 @@
       <c r="W44" s="24"/>
       <c r="X44" s="24"/>
       <c r="Y44" s="24"/>
+      <c r="Z44" s="25"/>
+      <c r="AA44" s="25"/>
+      <c r="AB44" s="25"/>
+      <c r="AC44" s="25"/>
       <c r="AD44" s="25"/>
       <c r="AE44" s="25"/>
       <c r="AF44" s="25"/>
@@ -3334,32 +3344,32 @@
       <c r="AH44" s="24"/>
     </row>
     <row r="45" spans="1:70" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="27"/>
-      <c r="B45" s="47" t="s">
+      <c r="A45" s="26"/>
+      <c r="B45" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="48">
-        <v>8</v>
-      </c>
-      <c r="D45" s="49">
-        <v>3</v>
-      </c>
-      <c r="E45" s="49">
+      <c r="C45" s="47">
+        <v>8</v>
+      </c>
+      <c r="D45" s="48">
+        <v>3</v>
+      </c>
+      <c r="E45" s="48">
         <v>18</v>
       </c>
-      <c r="F45" s="49">
+      <c r="F45" s="48">
         <v>21</v>
       </c>
-      <c r="G45" s="49">
+      <c r="G45" s="48">
         <v>10</v>
       </c>
-      <c r="H45" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="I45" s="51">
+      <c r="H45" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="I45" s="50">
         <v>13</v>
       </c>
-      <c r="J45" s="27"/>
+      <c r="J45" s="26"/>
       <c r="K45" s="23" t="s">
         <v>10</v>
       </c>
@@ -3379,96 +3389,96 @@
       <c r="AF45" s="24"/>
     </row>
     <row r="46" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
+      <c r="A46" s="26"/>
       <c r="B46" s="52" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="52"/>
-      <c r="D46" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="27"/>
+      <c r="D46" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="26"/>
     </row>
     <row r="47" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A47" s="27"/>
+      <c r="A47" s="26"/>
       <c r="B47" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="54"/>
-      <c r="D47" s="28">
-        <v>6.5</v>
-      </c>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="27"/>
+        <v>31</v>
+      </c>
+      <c r="C47" s="53"/>
+      <c r="D47" s="27">
+        <v>12.4</v>
+      </c>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="26"/>
     </row>
     <row r="48" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="27"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="26"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="27"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="26"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="27"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="26"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="27"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="27"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3482,5 +3492,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C42:D42 I42 G42 D21" twoDigitTextYear="1"/>
+    <ignoredError sqref="D35 D25 D16 D7 D46" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>